--- a/ds775_hw4_munging.xlsx
+++ b/ds775_hw4_munging.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="26">
   <si>
     <t>table_routes_products</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>FRA</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>qty</t>
   </si>
   <si>
     <t>DET</t>
@@ -238,13 +229,13 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="I2" s="2">
+        <v>400.0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
@@ -264,28 +255,28 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>10.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="2">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>14</v>
@@ -302,28 +293,28 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>8.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="2">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>14</v>
@@ -340,7 +331,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>10.0</v>
@@ -350,19 +341,19 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2">
-        <v>200.0</v>
+        <v>700.0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2">
         <v>300.0</v>
@@ -376,29 +367,29 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>11.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2">
-        <v>700.0</v>
+        <v>1600.0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L6" s="2">
         <v>750.0</v>
@@ -412,29 +403,29 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>71.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2">
-        <v>1600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L7" s="2">
         <v>100.0</v>
@@ -448,29 +439,29 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>6.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="2">
-        <v>300.0</v>
+        <v>800.0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2">
         <v>100.0</v>
@@ -481,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -490,23 +481,23 @@
         <v>22.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2">
-        <v>800.0</v>
+        <v>1800.0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2">
         <v>400.0</v>
@@ -517,32 +508,32 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>7.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2">
-        <v>1800.0</v>
+        <v>300.0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2">
         <v>0.0</v>
@@ -553,32 +544,23 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>10.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I11" s="2">
-        <v>300.0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="L11" s="2">
         <v>75.0</v>
@@ -589,10 +571,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>7.0</v>
@@ -603,10 +585,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2">
         <v>250.0</v>
@@ -617,10 +599,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>21.0</v>
@@ -631,10 +613,10 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2">
         <v>50.0</v>
@@ -645,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>82.0</v>
@@ -662,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L14" s="2">
         <v>650.0</v>
@@ -673,10 +655,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <v>13.0</v>
@@ -687,10 +669,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15" s="2">
         <v>950.0</v>
@@ -701,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -715,10 +697,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L16" s="2">
         <v>200.0</v>
@@ -729,10 +711,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2">
         <v>11.0</v>
@@ -746,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L17" s="2">
         <v>225.0</v>
@@ -757,10 +739,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <v>12.0</v>
@@ -771,10 +753,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L18" s="2">
         <v>850.0</v>
@@ -785,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D19" s="2">
         <v>10.0</v>
@@ -799,10 +781,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="L19" s="2">
         <v>100.0</v>
@@ -813,10 +795,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2">
         <v>25.0</v>
@@ -830,7 +812,7 @@
         <v>12</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L20" s="2">
         <v>250.0</v>
@@ -841,10 +823,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2">
         <v>83.0</v>
@@ -855,10 +837,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L21" s="2">
         <v>500.0</v>
@@ -869,10 +851,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2">
         <v>15.0</v>
@@ -883,10 +865,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L22" s="2">
         <v>250.0</v>
@@ -894,7 +876,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
@@ -916,13 +898,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2">
         <v>14.0</v>
@@ -938,13 +920,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2">
         <v>11.0</v>
@@ -960,13 +942,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2">
         <v>14.0</v>
@@ -982,13 +964,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2">
         <v>16.0</v>
@@ -1004,13 +986,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2">
         <v>82.0</v>
@@ -1026,13 +1008,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2">
         <v>8.0</v>
@@ -1048,10 +1030,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>14</v>
@@ -1070,13 +1052,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2">
         <v>9.0</v>
@@ -1092,13 +1074,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2">
         <v>12.0</v>
@@ -1114,13 +1096,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2">
         <v>9.0</v>
@@ -1136,13 +1118,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2">
         <v>26.0</v>
@@ -1158,13 +1140,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2">
         <v>95.0</v>
@@ -1180,13 +1162,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2">
         <v>17.0</v>
@@ -1202,10 +1184,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
@@ -1224,13 +1206,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2">
         <v>14.0</v>
@@ -1246,13 +1228,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2">
         <v>17.0</v>
@@ -1268,13 +1250,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D40" s="2">
         <v>13.0</v>
@@ -1290,13 +1272,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2">
         <v>28.0</v>
@@ -1312,13 +1294,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2">
         <v>99.0</v>
@@ -1334,13 +1316,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2">
         <v>20.0</v>
@@ -1356,7 +1338,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>13</v>
@@ -1378,13 +1360,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2">
         <v>15.0</v>
@@ -1400,13 +1382,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2">
         <v>12.0</v>
@@ -1422,13 +1404,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2">
         <v>16.0</v>
@@ -1444,13 +1426,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D48" s="2">
         <v>17.0</v>
@@ -1466,13 +1448,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>86.0</v>
@@ -1488,13 +1470,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2">
         <v>8.0</v>
@@ -1510,10 +1492,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
@@ -1532,13 +1514,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2">
         <v>9.0</v>
@@ -1554,13 +1536,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2">
         <v>13.0</v>
@@ -1576,13 +1558,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2">
         <v>9.0</v>
@@ -1598,13 +1580,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D55" s="2">
         <v>28.0</v>
@@ -1620,13 +1602,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>99.0</v>
@@ -1642,13 +1624,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2">
         <v>18.0</v>
@@ -1664,10 +1646,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
@@ -1686,13 +1668,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2">
         <v>14.0</v>
@@ -1708,13 +1690,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2">
         <v>17.0</v>
@@ -1730,13 +1712,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D61" s="2">
         <v>13.0</v>
@@ -1752,13 +1734,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2">
         <v>31.0</v>
@@ -1774,13 +1756,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>104.0</v>
@@ -1796,13 +1778,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2">
         <v>20.0</v>
